--- a/QCS_Pipeline/Pipeline #2 (QCS + Tissue)/output/IS_Norm_propranolol_batch_dataset.xlsx
+++ b/QCS_Pipeline/Pipeline #2 (QCS + Tissue)/output/IS_Norm_propranolol_batch_dataset.xlsx
@@ -719,7 +719,9 @@
       <c r="D2" t="n">
         <v>1.40740188153831</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -734,7 +736,9 @@
       <c r="D3" t="n">
         <v>1.17183617341664</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -749,7 +753,9 @@
       <c r="D4" t="n">
         <v>1.1657215614672</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -764,7 +770,9 @@
       <c r="D5" t="n">
         <v>1.23192810883272</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -779,7 +787,9 @@
       <c r="D6" t="n">
         <v>1.20047685173092</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -794,7 +804,9 @@
       <c r="D7" t="n">
         <v>1.09434978013337</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -809,7 +821,9 @@
       <c r="D8" t="n">
         <v>1.3561221528429</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -824,7 +838,9 @@
       <c r="D9" t="n">
         <v>1.21533074841795</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -839,7 +855,9 @@
       <c r="D10" t="n">
         <v>1.22773799219112</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -854,7 +872,9 @@
       <c r="D11" t="n">
         <v>1.35092461303591</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -869,7 +889,9 @@
       <c r="D12" t="n">
         <v>1.59412320579947</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -884,7 +906,9 @@
       <c r="D13" t="n">
         <v>1.2277210703795</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -899,7 +923,9 @@
       <c r="D14" t="n">
         <v>1.5958529772902</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -914,7 +940,9 @@
       <c r="D15" t="n">
         <v>1.30297410095645</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -929,7 +957,9 @@
       <c r="D16" t="n">
         <v>1.13206933665364</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -944,7 +974,9 @@
       <c r="D17" t="n">
         <v>1.17271168682564</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -959,7 +991,9 @@
       <c r="D18" t="n">
         <v>1.12081361809845</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -974,7 +1008,9 @@
       <c r="D19" t="n">
         <v>1.16685622768971</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -989,7 +1025,9 @@
       <c r="D20" t="n">
         <v>1.77222294231402</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1004,7 +1042,9 @@
       <c r="D21" t="n">
         <v>1.42281258952063</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1019,7 +1059,9 @@
       <c r="D22" t="n">
         <v>1.03918734678283</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1034,7 +1076,9 @@
       <c r="D23" t="n">
         <v>1.07629417307488</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1049,7 +1093,9 @@
       <c r="D24" t="n">
         <v>1.19155594954142</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1064,7 +1110,9 @@
       <c r="D25" t="n">
         <v>1.03164545079533</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1079,7 +1127,9 @@
       <c r="D26" t="n">
         <v>1.03608376922627</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1094,7 +1144,9 @@
       <c r="D27" t="n">
         <v>1.03361498916714</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1109,7 +1161,9 @@
       <c r="D28" t="n">
         <v>1.31308960093867</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1124,7 +1178,9 @@
       <c r="D29" t="n">
         <v>1.33841763539579</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1139,7 +1195,9 @@
       <c r="D30" t="n">
         <v>1.33552367455104</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1154,7 +1212,9 @@
       <c r="D31" t="n">
         <v>1.09445218834317</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1169,7 +1229,9 @@
       <c r="D32" t="n">
         <v>1.20881557318516</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1184,7 +1246,9 @@
       <c r="D33" t="n">
         <v>1.48213345600187</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1199,7 +1263,9 @@
       <c r="D34" t="n">
         <v>1.78854603638895</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1214,7 +1280,9 @@
       <c r="D35" t="n">
         <v>1.75298213759131</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1229,7 +1297,9 @@
       <c r="D36" t="n">
         <v>1.49338709583037</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1244,7 +1314,9 @@
       <c r="D37" t="n">
         <v>1.73910949014861</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1259,7 +1331,9 @@
       <c r="D38" t="n">
         <v>1.52075038443362</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1274,7 +1348,9 @@
       <c r="D39" t="n">
         <v>1.43297649895216</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1289,7 +1365,9 @@
       <c r="D40" t="n">
         <v>1.2774130501376</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1304,7 +1382,9 @@
       <c r="D41" t="n">
         <v>1.22113060881405</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1319,7 +1399,9 @@
       <c r="D42" t="n">
         <v>1.18700241631749</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1334,7 +1416,9 @@
       <c r="D43" t="n">
         <v>1.33821199793009</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1349,7 +1433,9 @@
       <c r="D44" t="n">
         <v>1.18780067324584</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1364,7 +1450,9 @@
       <c r="D45" t="n">
         <v>1.14498898571956</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1379,7 +1467,9 @@
       <c r="D46" t="n">
         <v>1.1719452676404</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1394,7 +1484,9 @@
       <c r="D47" t="n">
         <v>1.24180317031009</v>
       </c>
-      <c r="E47"/>
+      <c r="E47" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1409,7 +1501,9 @@
       <c r="D48" t="n">
         <v>1.61003686029911</v>
       </c>
-      <c r="E48"/>
+      <c r="E48" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1424,7 +1518,9 @@
       <c r="D49" t="n">
         <v>1.178171126161</v>
       </c>
-      <c r="E49"/>
+      <c r="E49" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1439,7 +1535,9 @@
       <c r="D50" t="n">
         <v>1.15934843043488</v>
       </c>
-      <c r="E50"/>
+      <c r="E50" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1454,7 +1552,9 @@
       <c r="D51" t="n">
         <v>1.16645471597189</v>
       </c>
-      <c r="E51"/>
+      <c r="E51" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1469,7 +1569,9 @@
       <c r="D52" t="n">
         <v>1.12426714281496</v>
       </c>
-      <c r="E52"/>
+      <c r="E52" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1484,7 +1586,9 @@
       <c r="D53" t="n">
         <v>1.2435110798915</v>
       </c>
-      <c r="E53"/>
+      <c r="E53" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1499,7 +1603,9 @@
       <c r="D54" t="n">
         <v>1.55467654633515</v>
       </c>
-      <c r="E54"/>
+      <c r="E54" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1514,7 +1620,9 @@
       <c r="D55" t="n">
         <v>1.14931919266139</v>
       </c>
-      <c r="E55"/>
+      <c r="E55" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1529,7 +1637,9 @@
       <c r="D56" t="n">
         <v>1.18507708087712</v>
       </c>
-      <c r="E56"/>
+      <c r="E56" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1544,7 +1654,9 @@
       <c r="D57" t="n">
         <v>1.41258650740501</v>
       </c>
-      <c r="E57"/>
+      <c r="E57" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1559,7 +1671,9 @@
       <c r="D58" t="n">
         <v>1.77788955499742</v>
       </c>
-      <c r="E58"/>
+      <c r="E58" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1574,7 +1688,9 @@
       <c r="D59" t="n">
         <v>1.65354268221066</v>
       </c>
-      <c r="E59"/>
+      <c r="E59" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1589,7 +1705,9 @@
       <c r="D60" t="n">
         <v>1.33861546408551</v>
       </c>
-      <c r="E60"/>
+      <c r="E60" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1604,7 +1722,9 @@
       <c r="D61" t="n">
         <v>1.5793707668723</v>
       </c>
-      <c r="E61"/>
+      <c r="E61" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1619,7 +1739,9 @@
       <c r="D62" t="n">
         <v>1.3857916194894</v>
       </c>
-      <c r="E62"/>
+      <c r="E62" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1634,7 +1756,9 @@
       <c r="D63" t="n">
         <v>1.3001187442718</v>
       </c>
-      <c r="E63"/>
+      <c r="E63" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1649,7 +1773,9 @@
       <c r="D64" t="n">
         <v>1.29291844065336</v>
       </c>
-      <c r="E64"/>
+      <c r="E64" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -1664,7 +1790,9 @@
       <c r="D65" t="n">
         <v>1.39653844579173</v>
       </c>
-      <c r="E65"/>
+      <c r="E65" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -1679,7 +1807,9 @@
       <c r="D66" t="n">
         <v>1.59344864596698</v>
       </c>
-      <c r="E66"/>
+      <c r="E66" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1694,7 +1824,9 @@
       <c r="D67" t="n">
         <v>1.22146663629363</v>
       </c>
-      <c r="E67"/>
+      <c r="E67" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -1709,7 +1841,9 @@
       <c r="D68" t="n">
         <v>1.17536385856263</v>
       </c>
-      <c r="E68"/>
+      <c r="E68" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -1724,7 +1858,9 @@
       <c r="D69" t="n">
         <v>1.43781199438044</v>
       </c>
-      <c r="E69"/>
+      <c r="E69" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -1739,7 +1875,9 @@
       <c r="D70" t="n">
         <v>1.73326318624097</v>
       </c>
-      <c r="E70"/>
+      <c r="E70" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -1754,7 +1892,9 @@
       <c r="D71" t="n">
         <v>1.63019741003846</v>
       </c>
-      <c r="E71"/>
+      <c r="E71" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -1769,7 +1909,9 @@
       <c r="D72" t="n">
         <v>1.39191126653635</v>
       </c>
-      <c r="E72"/>
+      <c r="E72" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -1784,7 +1926,9 @@
       <c r="D73" t="n">
         <v>1.69474237423814</v>
       </c>
-      <c r="E73"/>
+      <c r="E73" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -1799,7 +1943,9 @@
       <c r="D74" t="n">
         <v>1.31292458384511</v>
       </c>
-      <c r="E74"/>
+      <c r="E74" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -1814,7 +1960,9 @@
       <c r="D75" t="n">
         <v>1.30512126129923</v>
       </c>
-      <c r="E75"/>
+      <c r="E75" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -1829,7 +1977,9 @@
       <c r="D76" t="n">
         <v>1.33855064691746</v>
       </c>
-      <c r="E76"/>
+      <c r="E76" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -1844,7 +1994,9 @@
       <c r="D77" t="n">
         <v>1.36582849282254</v>
       </c>
-      <c r="E77"/>
+      <c r="E77" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -1859,7 +2011,9 @@
       <c r="D78" t="n">
         <v>1.43216666702584</v>
       </c>
-      <c r="E78"/>
+      <c r="E78" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -1874,7 +2028,9 @@
       <c r="D79" t="n">
         <v>1.28748267115111</v>
       </c>
-      <c r="E79"/>
+      <c r="E79" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -1889,7 +2045,9 @@
       <c r="D80" t="n">
         <v>1.52314959602175</v>
       </c>
-      <c r="E80"/>
+      <c r="E80" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -1904,7 +2062,9 @@
       <c r="D81" t="n">
         <v>1.43536456381184</v>
       </c>
-      <c r="E81"/>
+      <c r="E81" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -1919,7 +2079,9 @@
       <c r="D82" t="n">
         <v>1.37628346946935</v>
       </c>
-      <c r="E82"/>
+      <c r="E82" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -1934,7 +2096,9 @@
       <c r="D83" t="n">
         <v>1.31746566358066</v>
       </c>
-      <c r="E83"/>
+      <c r="E83" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -1949,7 +2113,9 @@
       <c r="D84" t="n">
         <v>1.3177030970025</v>
       </c>
-      <c r="E84"/>
+      <c r="E84" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -1964,7 +2130,9 @@
       <c r="D85" t="n">
         <v>1.46326043850793</v>
       </c>
-      <c r="E85"/>
+      <c r="E85" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -1979,7 +2147,9 @@
       <c r="D86" t="n">
         <v>1.4095681439032</v>
       </c>
-      <c r="E86"/>
+      <c r="E86" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -1994,7 +2164,9 @@
       <c r="D87" t="n">
         <v>1.52061598080194</v>
       </c>
-      <c r="E87"/>
+      <c r="E87" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2009,7 +2181,9 @@
       <c r="D88" t="n">
         <v>1.46659562978592</v>
       </c>
-      <c r="E88"/>
+      <c r="E88" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -2024,7 +2198,9 @@
       <c r="D89" t="n">
         <v>1.32157235349266</v>
       </c>
-      <c r="E89"/>
+      <c r="E89" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -2039,7 +2215,9 @@
       <c r="D90" t="n">
         <v>1.36444833766782</v>
       </c>
-      <c r="E90"/>
+      <c r="E90" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -2054,7 +2232,9 @@
       <c r="D91" t="n">
         <v>1.32016198789788</v>
       </c>
-      <c r="E91"/>
+      <c r="E91" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -2069,7 +2249,9 @@
       <c r="D92" t="n">
         <v>1.24285801590451</v>
       </c>
-      <c r="E92"/>
+      <c r="E92" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -2084,7 +2266,9 @@
       <c r="D93" t="n">
         <v>1.15122709926976</v>
       </c>
-      <c r="E93"/>
+      <c r="E93" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -2099,7 +2283,9 @@
       <c r="D94" t="n">
         <v>1.30822925420825</v>
       </c>
-      <c r="E94"/>
+      <c r="E94" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -2114,7 +2300,9 @@
       <c r="D95" t="n">
         <v>1.60208883759566</v>
       </c>
-      <c r="E95"/>
+      <c r="E95" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2129,7 +2317,9 @@
       <c r="D96" t="n">
         <v>1.59306869670804</v>
       </c>
-      <c r="E96"/>
+      <c r="E96" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2144,7 +2334,9 @@
       <c r="D97" t="n">
         <v>1.30665029988562</v>
       </c>
-      <c r="E97"/>
+      <c r="E97" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -2159,7 +2351,9 @@
       <c r="D98" t="n">
         <v>1.39364336777979</v>
       </c>
-      <c r="E98"/>
+      <c r="E98" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2174,7 +2368,9 @@
       <c r="D99" t="n">
         <v>1.51392781048882</v>
       </c>
-      <c r="E99"/>
+      <c r="E99" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -2189,7 +2385,9 @@
       <c r="D100" t="n">
         <v>1.72815007490308</v>
       </c>
-      <c r="E100"/>
+      <c r="E100" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -2204,7 +2402,9 @@
       <c r="D101" t="n">
         <v>1.59136253232781</v>
       </c>
-      <c r="E101"/>
+      <c r="E101" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -2219,7 +2419,9 @@
       <c r="D102" t="n">
         <v>1.53697958896879</v>
       </c>
-      <c r="E102"/>
+      <c r="E102" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -2234,7 +2436,9 @@
       <c r="D103" t="n">
         <v>1.67599060643405</v>
       </c>
-      <c r="E103"/>
+      <c r="E103" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2249,7 +2453,9 @@
       <c r="D104" t="n">
         <v>1.24164792847521</v>
       </c>
-      <c r="E104"/>
+      <c r="E104" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2264,7 +2470,9 @@
       <c r="D105" t="n">
         <v>1.29301354830789</v>
       </c>
-      <c r="E105"/>
+      <c r="E105" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -2279,7 +2487,9 @@
       <c r="D106" t="n">
         <v>1.34561524617721</v>
       </c>
-      <c r="E106"/>
+      <c r="E106" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2294,7 +2504,9 @@
       <c r="D107" t="n">
         <v>1.46301073435986</v>
       </c>
-      <c r="E107"/>
+      <c r="E107" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -2309,7 +2521,9 @@
       <c r="D108" t="n">
         <v>1.66002405829967</v>
       </c>
-      <c r="E108"/>
+      <c r="E108" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -2324,7 +2538,9 @@
       <c r="D109" t="n">
         <v>1.28427978231059</v>
       </c>
-      <c r="E109"/>
+      <c r="E109" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2370,7 +2586,9 @@
       <c r="D2" t="n">
         <v>1.18507708087712</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2385,7 +2603,9 @@
       <c r="D3" t="n">
         <v>1.41258650740501</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2400,7 +2620,9 @@
       <c r="D4" t="n">
         <v>1.77788955499742</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2415,7 +2637,9 @@
       <c r="D5" t="n">
         <v>1.65354268221066</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2430,7 +2654,9 @@
       <c r="D6" t="n">
         <v>1.33861546408551</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2445,7 +2671,9 @@
       <c r="D7" t="n">
         <v>1.5793707668723</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2460,7 +2688,9 @@
       <c r="D8" t="n">
         <v>1.3857916194894</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2475,7 +2705,9 @@
       <c r="D9" t="n">
         <v>1.3001187442718</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2490,7 +2722,9 @@
       <c r="D10" t="n">
         <v>1.29291844065336</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2505,7 +2739,9 @@
       <c r="D11" t="n">
         <v>1.39653844579173</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2520,7 +2756,9 @@
       <c r="D12" t="n">
         <v>1.59344864596698</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2535,7 +2773,9 @@
       <c r="D13" t="n">
         <v>1.22146663629363</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2550,7 +2790,9 @@
       <c r="D14" t="n">
         <v>1.17536385856263</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2565,7 +2807,9 @@
       <c r="D15" t="n">
         <v>1.43781199438044</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2580,7 +2824,9 @@
       <c r="D16" t="n">
         <v>1.73326318624097</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2595,7 +2841,9 @@
       <c r="D17" t="n">
         <v>1.63019741003846</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2610,7 +2858,9 @@
       <c r="D18" t="n">
         <v>1.39191126653635</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2625,7 +2875,9 @@
       <c r="D19" t="n">
         <v>1.69474237423814</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2640,7 +2892,9 @@
       <c r="D20" t="n">
         <v>1.31292458384511</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2655,7 +2909,9 @@
       <c r="D21" t="n">
         <v>1.30512126129923</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2670,7 +2926,9 @@
       <c r="D22" t="n">
         <v>1.33855064691746</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -2685,7 +2943,9 @@
       <c r="D23" t="n">
         <v>1.36582849282254</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2700,7 +2960,9 @@
       <c r="D24" t="n">
         <v>1.43216666702584</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2715,7 +2977,9 @@
       <c r="D25" t="n">
         <v>1.28748267115111</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2730,7 +2994,9 @@
       <c r="D26" t="n">
         <v>1.52314959602175</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -2745,7 +3011,9 @@
       <c r="D27" t="n">
         <v>1.43536456381184</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2760,7 +3028,9 @@
       <c r="D28" t="n">
         <v>1.37628346946935</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2775,7 +3045,9 @@
       <c r="D29" t="n">
         <v>1.31746566358066</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2790,7 +3062,9 @@
       <c r="D30" t="n">
         <v>1.3177030970025</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2805,7 +3079,9 @@
       <c r="D31" t="n">
         <v>1.46326043850793</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2820,7 +3096,9 @@
       <c r="D32" t="n">
         <v>1.4095681439032</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2835,7 +3113,9 @@
       <c r="D33" t="n">
         <v>1.52061598080194</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2850,7 +3130,9 @@
       <c r="D34" t="n">
         <v>1.46659562978592</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2865,7 +3147,9 @@
       <c r="D35" t="n">
         <v>1.32157235349266</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2880,7 +3164,9 @@
       <c r="D36" t="n">
         <v>1.36444833766782</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -2895,7 +3181,9 @@
       <c r="D37" t="n">
         <v>1.32016198789788</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="n">
+        <v>10.474521291369</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2941,7 +3229,9 @@
       <c r="D2" t="n">
         <v>1.40740188153831</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2956,7 +3246,9 @@
       <c r="D3" t="n">
         <v>1.17183617341664</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2971,7 +3263,9 @@
       <c r="D4" t="n">
         <v>1.1657215614672</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2986,7 +3280,9 @@
       <c r="D5" t="n">
         <v>1.23192810883272</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3001,7 +3297,9 @@
       <c r="D6" t="n">
         <v>1.20047685173092</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3016,7 +3314,9 @@
       <c r="D7" t="n">
         <v>1.09434978013337</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3031,7 +3331,9 @@
       <c r="D8" t="n">
         <v>1.3561221528429</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3046,7 +3348,9 @@
       <c r="D9" t="n">
         <v>1.21533074841795</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3061,7 +3365,9 @@
       <c r="D10" t="n">
         <v>1.22773799219112</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3076,7 +3382,9 @@
       <c r="D11" t="n">
         <v>1.35092461303591</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3091,7 +3399,9 @@
       <c r="D12" t="n">
         <v>1.59412320579947</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3106,7 +3416,9 @@
       <c r="D13" t="n">
         <v>1.2277210703795</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3121,7 +3433,9 @@
       <c r="D14" t="n">
         <v>1.5958529772902</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3136,7 +3450,9 @@
       <c r="D15" t="n">
         <v>1.30297410095645</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3151,7 +3467,9 @@
       <c r="D16" t="n">
         <v>1.13206933665364</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3166,7 +3484,9 @@
       <c r="D17" t="n">
         <v>1.17271168682564</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3181,7 +3501,9 @@
       <c r="D18" t="n">
         <v>1.12081361809845</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3196,7 +3518,9 @@
       <c r="D19" t="n">
         <v>1.16685622768971</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3211,7 +3535,9 @@
       <c r="D20" t="n">
         <v>1.24285801590451</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3226,7 +3552,9 @@
       <c r="D21" t="n">
         <v>1.15122709926976</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3241,7 +3569,9 @@
       <c r="D22" t="n">
         <v>1.30822925420825</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3256,7 +3586,9 @@
       <c r="D23" t="n">
         <v>1.60208883759566</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3271,7 +3603,9 @@
       <c r="D24" t="n">
         <v>1.59306869670804</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3286,7 +3620,9 @@
       <c r="D25" t="n">
         <v>1.30665029988562</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3301,7 +3637,9 @@
       <c r="D26" t="n">
         <v>1.39364336777979</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3316,7 +3654,9 @@
       <c r="D27" t="n">
         <v>1.51392781048882</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -3331,7 +3671,9 @@
       <c r="D28" t="n">
         <v>1.72815007490308</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -3346,7 +3688,9 @@
       <c r="D29" t="n">
         <v>1.59136253232781</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -3361,7 +3705,9 @@
       <c r="D30" t="n">
         <v>1.53697958896879</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3376,7 +3722,9 @@
       <c r="D31" t="n">
         <v>1.67599060643405</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3391,7 +3739,9 @@
       <c r="D32" t="n">
         <v>1.24164792847521</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3406,7 +3756,9 @@
       <c r="D33" t="n">
         <v>1.29301354830789</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3421,7 +3773,9 @@
       <c r="D34" t="n">
         <v>1.34561524617721</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -3436,7 +3790,9 @@
       <c r="D35" t="n">
         <v>1.46301073435986</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -3451,7 +3807,9 @@
       <c r="D36" t="n">
         <v>1.66002405829967</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -3466,7 +3824,9 @@
       <c r="D37" t="n">
         <v>1.28427978231059</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="n">
+        <v>13.5971829414858</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3512,7 +3872,9 @@
       <c r="D2" t="n">
         <v>1.77222294231402</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3527,7 +3889,9 @@
       <c r="D3" t="n">
         <v>1.42281258952063</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3542,7 +3906,9 @@
       <c r="D4" t="n">
         <v>1.03918734678283</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3557,7 +3923,9 @@
       <c r="D5" t="n">
         <v>1.07629417307488</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3572,7 +3940,9 @@
       <c r="D6" t="n">
         <v>1.19155594954142</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -3587,7 +3957,9 @@
       <c r="D7" t="n">
         <v>1.03164545079533</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -3602,7 +3974,9 @@
       <c r="D8" t="n">
         <v>1.03608376922627</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -3617,7 +3991,9 @@
       <c r="D9" t="n">
         <v>1.03361498916714</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -3632,7 +4008,9 @@
       <c r="D10" t="n">
         <v>1.31308960093867</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -3647,7 +4025,9 @@
       <c r="D11" t="n">
         <v>1.33841763539579</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -3662,7 +4042,9 @@
       <c r="D12" t="n">
         <v>1.33552367455104</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -3677,7 +4059,9 @@
       <c r="D13" t="n">
         <v>1.09445218834317</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -3692,7 +4076,9 @@
       <c r="D14" t="n">
         <v>1.20881557318516</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -3707,7 +4093,9 @@
       <c r="D15" t="n">
         <v>1.48213345600187</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -3722,7 +4110,9 @@
       <c r="D16" t="n">
         <v>1.78854603638895</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -3737,7 +4127,9 @@
       <c r="D17" t="n">
         <v>1.75298213759131</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -3752,7 +4144,9 @@
       <c r="D18" t="n">
         <v>1.49338709583037</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -3767,7 +4161,9 @@
       <c r="D19" t="n">
         <v>1.73910949014861</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -3782,7 +4178,9 @@
       <c r="D20" t="n">
         <v>1.52075038443362</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -3797,7 +4195,9 @@
       <c r="D21" t="n">
         <v>1.43297649895216</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -3812,7 +4212,9 @@
       <c r="D22" t="n">
         <v>1.2774130501376</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -3827,7 +4229,9 @@
       <c r="D23" t="n">
         <v>1.22113060881405</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -3842,7 +4246,9 @@
       <c r="D24" t="n">
         <v>1.18700241631749</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -3857,7 +4263,9 @@
       <c r="D25" t="n">
         <v>1.33821199793009</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -3872,7 +4280,9 @@
       <c r="D26" t="n">
         <v>1.18780067324584</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -3887,7 +4297,9 @@
       <c r="D27" t="n">
         <v>1.14498898571956</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -3902,7 +4314,9 @@
       <c r="D28" t="n">
         <v>1.1719452676404</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -3917,7 +4331,9 @@
       <c r="D29" t="n">
         <v>1.24180317031009</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -3932,7 +4348,9 @@
       <c r="D30" t="n">
         <v>1.61003686029911</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -3947,7 +4365,9 @@
       <c r="D31" t="n">
         <v>1.178171126161</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -3962,7 +4382,9 @@
       <c r="D32" t="n">
         <v>1.15934843043488</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -3977,7 +4399,9 @@
       <c r="D33" t="n">
         <v>1.16645471597189</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -3992,7 +4416,9 @@
       <c r="D34" t="n">
         <v>1.12426714281496</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -4007,7 +4433,9 @@
       <c r="D35" t="n">
         <v>1.2435110798915</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -4022,7 +4450,9 @@
       <c r="D36" t="n">
         <v>1.55467654633515</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -4037,7 +4467,9 @@
       <c r="D37" t="n">
         <v>1.14931919266139</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="n">
+        <v>17.1221469167019</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,7 +4515,9 @@
       <c r="D2" t="n">
         <v>1.40740188153831</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4098,7 +4532,9 @@
       <c r="D3" t="n">
         <v>1.17183617341664</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4113,7 +4549,9 @@
       <c r="D4" t="n">
         <v>1.1657215614672</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4128,7 +4566,9 @@
       <c r="D5" t="n">
         <v>1.23192810883272</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4143,7 +4583,9 @@
       <c r="D6" t="n">
         <v>1.20047685173092</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4158,7 +4600,9 @@
       <c r="D7" t="n">
         <v>1.09434978013337</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4173,7 +4617,9 @@
       <c r="D8" t="n">
         <v>1.3561221528429</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4188,7 +4634,9 @@
       <c r="D9" t="n">
         <v>1.21533074841795</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4203,7 +4651,9 @@
       <c r="D10" t="n">
         <v>1.22773799219112</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4218,7 +4668,9 @@
       <c r="D11" t="n">
         <v>1.35092461303591</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4233,7 +4685,9 @@
       <c r="D12" t="n">
         <v>1.59412320579947</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4248,7 +4702,9 @@
       <c r="D13" t="n">
         <v>1.2277210703795</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4263,7 +4719,9 @@
       <c r="D14" t="n">
         <v>1.5958529772902</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4278,7 +4736,9 @@
       <c r="D15" t="n">
         <v>1.30297410095645</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4293,7 +4753,9 @@
       <c r="D16" t="n">
         <v>1.13206933665364</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4308,7 +4770,9 @@
       <c r="D17" t="n">
         <v>1.17271168682564</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4323,7 +4787,9 @@
       <c r="D18" t="n">
         <v>1.12081361809845</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4338,7 +4804,9 @@
       <c r="D19" t="n">
         <v>1.16685622768971</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4353,7 +4821,9 @@
       <c r="D20" t="n">
         <v>1.77222294231402</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4368,7 +4838,9 @@
       <c r="D21" t="n">
         <v>1.42281258952063</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4383,7 +4855,9 @@
       <c r="D22" t="n">
         <v>1.03918734678283</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4398,7 +4872,9 @@
       <c r="D23" t="n">
         <v>1.07629417307488</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4413,7 +4889,9 @@
       <c r="D24" t="n">
         <v>1.19155594954142</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4428,7 +4906,9 @@
       <c r="D25" t="n">
         <v>1.03164545079533</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4443,7 +4923,9 @@
       <c r="D26" t="n">
         <v>1.03608376922627</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4458,7 +4940,9 @@
       <c r="D27" t="n">
         <v>1.03361498916714</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4473,7 +4957,9 @@
       <c r="D28" t="n">
         <v>1.31308960093867</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4488,7 +4974,9 @@
       <c r="D29" t="n">
         <v>1.33841763539579</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -4503,7 +4991,9 @@
       <c r="D30" t="n">
         <v>1.33552367455104</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -4518,7 +5008,9 @@
       <c r="D31" t="n">
         <v>1.09445218834317</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -4533,7 +5025,9 @@
       <c r="D32" t="n">
         <v>1.20881557318516</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -4548,7 +5042,9 @@
       <c r="D33" t="n">
         <v>1.48213345600187</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -4563,7 +5059,9 @@
       <c r="D34" t="n">
         <v>1.78854603638895</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -4578,7 +5076,9 @@
       <c r="D35" t="n">
         <v>1.75298213759131</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -4593,7 +5093,9 @@
       <c r="D36" t="n">
         <v>1.49338709583037</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -4608,7 +5110,9 @@
       <c r="D37" t="n">
         <v>1.73910949014861</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -4623,7 +5127,9 @@
       <c r="D38" t="n">
         <v>1.52075038443362</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -4638,7 +5144,9 @@
       <c r="D39" t="n">
         <v>1.43297649895216</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -4653,7 +5161,9 @@
       <c r="D40" t="n">
         <v>1.2774130501376</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -4668,7 +5178,9 @@
       <c r="D41" t="n">
         <v>1.22113060881405</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -4683,7 +5195,9 @@
       <c r="D42" t="n">
         <v>1.18700241631749</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -4698,7 +5212,9 @@
       <c r="D43" t="n">
         <v>1.33821199793009</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -4713,7 +5229,9 @@
       <c r="D44" t="n">
         <v>1.18780067324584</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -4728,7 +5246,9 @@
       <c r="D45" t="n">
         <v>1.14498898571956</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -4743,7 +5263,9 @@
       <c r="D46" t="n">
         <v>1.1719452676404</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -4758,7 +5280,9 @@
       <c r="D47" t="n">
         <v>1.24180317031009</v>
       </c>
-      <c r="E47"/>
+      <c r="E47" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -4773,7 +5297,9 @@
       <c r="D48" t="n">
         <v>1.61003686029911</v>
       </c>
-      <c r="E48"/>
+      <c r="E48" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -4788,7 +5314,9 @@
       <c r="D49" t="n">
         <v>1.178171126161</v>
       </c>
-      <c r="E49"/>
+      <c r="E49" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -4803,7 +5331,9 @@
       <c r="D50" t="n">
         <v>1.15934843043488</v>
       </c>
-      <c r="E50"/>
+      <c r="E50" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -4818,7 +5348,9 @@
       <c r="D51" t="n">
         <v>1.16645471597189</v>
       </c>
-      <c r="E51"/>
+      <c r="E51" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -4833,7 +5365,9 @@
       <c r="D52" t="n">
         <v>1.12426714281496</v>
       </c>
-      <c r="E52"/>
+      <c r="E52" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -4848,7 +5382,9 @@
       <c r="D53" t="n">
         <v>1.2435110798915</v>
       </c>
-      <c r="E53"/>
+      <c r="E53" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -4863,7 +5399,9 @@
       <c r="D54" t="n">
         <v>1.55467654633515</v>
       </c>
-      <c r="E54"/>
+      <c r="E54" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -4878,7 +5416,9 @@
       <c r="D55" t="n">
         <v>1.14931919266139</v>
       </c>
-      <c r="E55"/>
+      <c r="E55" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -4893,7 +5433,9 @@
       <c r="D56" t="n">
         <v>1.18507708087712</v>
       </c>
-      <c r="E56"/>
+      <c r="E56" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -4908,7 +5450,9 @@
       <c r="D57" t="n">
         <v>1.41258650740501</v>
       </c>
-      <c r="E57"/>
+      <c r="E57" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -4923,7 +5467,9 @@
       <c r="D58" t="n">
         <v>1.77788955499742</v>
       </c>
-      <c r="E58"/>
+      <c r="E58" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -4938,7 +5484,9 @@
       <c r="D59" t="n">
         <v>1.65354268221066</v>
       </c>
-      <c r="E59"/>
+      <c r="E59" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -4953,7 +5501,9 @@
       <c r="D60" t="n">
         <v>1.33861546408551</v>
       </c>
-      <c r="E60"/>
+      <c r="E60" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -4968,7 +5518,9 @@
       <c r="D61" t="n">
         <v>1.5793707668723</v>
       </c>
-      <c r="E61"/>
+      <c r="E61" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -4983,7 +5535,9 @@
       <c r="D62" t="n">
         <v>1.3857916194894</v>
       </c>
-      <c r="E62"/>
+      <c r="E62" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -4998,7 +5552,9 @@
       <c r="D63" t="n">
         <v>1.3001187442718</v>
       </c>
-      <c r="E63"/>
+      <c r="E63" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -5013,7 +5569,9 @@
       <c r="D64" t="n">
         <v>1.29291844065336</v>
       </c>
-      <c r="E64"/>
+      <c r="E64" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -5028,7 +5586,9 @@
       <c r="D65" t="n">
         <v>1.39653844579173</v>
       </c>
-      <c r="E65"/>
+      <c r="E65" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -5043,7 +5603,9 @@
       <c r="D66" t="n">
         <v>1.59344864596698</v>
       </c>
-      <c r="E66"/>
+      <c r="E66" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -5058,7 +5620,9 @@
       <c r="D67" t="n">
         <v>1.22146663629363</v>
       </c>
-      <c r="E67"/>
+      <c r="E67" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -5073,7 +5637,9 @@
       <c r="D68" t="n">
         <v>1.17536385856263</v>
       </c>
-      <c r="E68"/>
+      <c r="E68" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -5088,7 +5654,9 @@
       <c r="D69" t="n">
         <v>1.43781199438044</v>
       </c>
-      <c r="E69"/>
+      <c r="E69" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -5103,7 +5671,9 @@
       <c r="D70" t="n">
         <v>1.73326318624097</v>
       </c>
-      <c r="E70"/>
+      <c r="E70" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -5118,7 +5688,9 @@
       <c r="D71" t="n">
         <v>1.63019741003846</v>
       </c>
-      <c r="E71"/>
+      <c r="E71" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -5133,7 +5705,9 @@
       <c r="D72" t="n">
         <v>1.39191126653635</v>
       </c>
-      <c r="E72"/>
+      <c r="E72" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -5148,7 +5722,9 @@
       <c r="D73" t="n">
         <v>1.69474237423814</v>
       </c>
-      <c r="E73"/>
+      <c r="E73" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -5163,7 +5739,9 @@
       <c r="D74" t="n">
         <v>1.31292458384511</v>
       </c>
-      <c r="E74"/>
+      <c r="E74" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -5178,7 +5756,9 @@
       <c r="D75" t="n">
         <v>1.30512126129923</v>
       </c>
-      <c r="E75"/>
+      <c r="E75" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -5193,7 +5773,9 @@
       <c r="D76" t="n">
         <v>1.33855064691746</v>
       </c>
-      <c r="E76"/>
+      <c r="E76" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -5208,7 +5790,9 @@
       <c r="D77" t="n">
         <v>1.36582849282254</v>
       </c>
-      <c r="E77"/>
+      <c r="E77" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -5223,7 +5807,9 @@
       <c r="D78" t="n">
         <v>1.43216666702584</v>
       </c>
-      <c r="E78"/>
+      <c r="E78" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -5238,7 +5824,9 @@
       <c r="D79" t="n">
         <v>1.28748267115111</v>
       </c>
-      <c r="E79"/>
+      <c r="E79" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -5253,7 +5841,9 @@
       <c r="D80" t="n">
         <v>1.52314959602175</v>
       </c>
-      <c r="E80"/>
+      <c r="E80" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -5268,7 +5858,9 @@
       <c r="D81" t="n">
         <v>1.43536456381184</v>
       </c>
-      <c r="E81"/>
+      <c r="E81" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -5283,7 +5875,9 @@
       <c r="D82" t="n">
         <v>1.37628346946935</v>
       </c>
-      <c r="E82"/>
+      <c r="E82" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -5298,7 +5892,9 @@
       <c r="D83" t="n">
         <v>1.31746566358066</v>
       </c>
-      <c r="E83"/>
+      <c r="E83" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -5313,7 +5909,9 @@
       <c r="D84" t="n">
         <v>1.3177030970025</v>
       </c>
-      <c r="E84"/>
+      <c r="E84" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -5328,7 +5926,9 @@
       <c r="D85" t="n">
         <v>1.46326043850793</v>
       </c>
-      <c r="E85"/>
+      <c r="E85" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5343,7 +5943,9 @@
       <c r="D86" t="n">
         <v>1.4095681439032</v>
       </c>
-      <c r="E86"/>
+      <c r="E86" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -5358,7 +5960,9 @@
       <c r="D87" t="n">
         <v>1.52061598080194</v>
       </c>
-      <c r="E87"/>
+      <c r="E87" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -5373,7 +5977,9 @@
       <c r="D88" t="n">
         <v>1.46659562978592</v>
       </c>
-      <c r="E88"/>
+      <c r="E88" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -5388,7 +5994,9 @@
       <c r="D89" t="n">
         <v>1.32157235349266</v>
       </c>
-      <c r="E89"/>
+      <c r="E89" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -5403,7 +6011,9 @@
       <c r="D90" t="n">
         <v>1.36444833766782</v>
       </c>
-      <c r="E90"/>
+      <c r="E90" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -5418,7 +6028,9 @@
       <c r="D91" t="n">
         <v>1.32016198789788</v>
       </c>
-      <c r="E91"/>
+      <c r="E91" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -5433,7 +6045,9 @@
       <c r="D92" t="n">
         <v>1.24285801590451</v>
       </c>
-      <c r="E92"/>
+      <c r="E92" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -5448,7 +6062,9 @@
       <c r="D93" t="n">
         <v>1.15122709926976</v>
       </c>
-      <c r="E93"/>
+      <c r="E93" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -5463,7 +6079,9 @@
       <c r="D94" t="n">
         <v>1.30822925420825</v>
       </c>
-      <c r="E94"/>
+      <c r="E94" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -5478,7 +6096,9 @@
       <c r="D95" t="n">
         <v>1.60208883759566</v>
       </c>
-      <c r="E95"/>
+      <c r="E95" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -5493,7 +6113,9 @@
       <c r="D96" t="n">
         <v>1.59306869670804</v>
       </c>
-      <c r="E96"/>
+      <c r="E96" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -5508,7 +6130,9 @@
       <c r="D97" t="n">
         <v>1.30665029988562</v>
       </c>
-      <c r="E97"/>
+      <c r="E97" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -5523,7 +6147,9 @@
       <c r="D98" t="n">
         <v>1.39364336777979</v>
       </c>
-      <c r="E98"/>
+      <c r="E98" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -5538,7 +6164,9 @@
       <c r="D99" t="n">
         <v>1.51392781048882</v>
       </c>
-      <c r="E99"/>
+      <c r="E99" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -5553,7 +6181,9 @@
       <c r="D100" t="n">
         <v>1.72815007490308</v>
       </c>
-      <c r="E100"/>
+      <c r="E100" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -5568,7 +6198,9 @@
       <c r="D101" t="n">
         <v>1.59136253232781</v>
       </c>
-      <c r="E101"/>
+      <c r="E101" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -5583,7 +6215,9 @@
       <c r="D102" t="n">
         <v>1.53697958896879</v>
       </c>
-      <c r="E102"/>
+      <c r="E102" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -5598,7 +6232,9 @@
       <c r="D103" t="n">
         <v>1.67599060643405</v>
       </c>
-      <c r="E103"/>
+      <c r="E103" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -5613,7 +6249,9 @@
       <c r="D104" t="n">
         <v>1.24164792847521</v>
       </c>
-      <c r="E104"/>
+      <c r="E104" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -5628,7 +6266,9 @@
       <c r="D105" t="n">
         <v>1.29301354830789</v>
       </c>
-      <c r="E105"/>
+      <c r="E105" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -5643,7 +6283,9 @@
       <c r="D106" t="n">
         <v>1.34561524617721</v>
       </c>
-      <c r="E106"/>
+      <c r="E106" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -5658,7 +6300,9 @@
       <c r="D107" t="n">
         <v>1.46301073435986</v>
       </c>
-      <c r="E107"/>
+      <c r="E107" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -5673,7 +6317,9 @@
       <c r="D108" t="n">
         <v>1.66002405829967</v>
       </c>
-      <c r="E108"/>
+      <c r="E108" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -5688,7 +6334,9 @@
       <c r="D109" t="n">
         <v>1.28427978231059</v>
       </c>
-      <c r="E109"/>
+      <c r="E109" t="n">
+        <v>14.1103752502995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
